--- a/SleepLabs/Data/extrapolatedPSRDistribution.xlsx
+++ b/SleepLabs/Data/extrapolatedPSRDistribution.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,128 +463,30 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45050.91666666666</v>
+        <v>45124.70833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45050.95833333334</v>
+        <v>45124.75</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45051</v>
-      </c>
-      <c r="B4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45051.04166666666</v>
-      </c>
-      <c r="B5" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45051.08333333334</v>
-      </c>
-      <c r="B6" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45051.125</v>
-      </c>
-      <c r="B7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45051.16666666666</v>
-      </c>
-      <c r="B8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45051.20833333334</v>
-      </c>
-      <c r="B9" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45051.25</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
